--- a/Code/Results/Cases/Case_4_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_92/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7828721753636785</v>
+        <v>0.2623293280092867</v>
       </c>
       <c r="C2">
-        <v>0.1540447713683761</v>
+        <v>0.04519528119864447</v>
       </c>
       <c r="D2">
-        <v>0.1966810378718691</v>
+        <v>0.07837785008241838</v>
       </c>
       <c r="E2">
-        <v>0.330476685485884</v>
+        <v>0.1560924885874613</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008079652575164262</v>
+        <v>0.002453381699923774</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4253533835002088</v>
+        <v>0.7232617069412512</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8973805212395405</v>
+        <v>0.2856344520822347</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5944367247136029</v>
+        <v>0.2290699548547721</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.21884756876787</v>
+        <v>3.387746781384607</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.681419170914495</v>
+        <v>0.2323202765363135</v>
       </c>
       <c r="C3">
-        <v>0.1347754846214855</v>
+        <v>0.03941117441554809</v>
       </c>
       <c r="D3">
-        <v>0.1705383234339592</v>
+        <v>0.07111882269654757</v>
       </c>
       <c r="E3">
-        <v>0.2873964097832982</v>
+        <v>0.1451477278358695</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008123841876669348</v>
+        <v>0.00245619341695368</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4196918543440695</v>
+        <v>0.7262354139395875</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7818218437074336</v>
+        <v>0.2513121107416794</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.51408840183732</v>
+        <v>0.2070729657989219</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.134534483192141</v>
+        <v>3.387659030955064</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6192622515187907</v>
+        <v>0.2139124479455745</v>
       </c>
       <c r="C4">
-        <v>0.1229813103824711</v>
+        <v>0.03584950314488822</v>
       </c>
       <c r="D4">
-        <v>0.1546464920330664</v>
+        <v>0.06669625504463284</v>
       </c>
       <c r="E4">
-        <v>0.2614603084492302</v>
+        <v>0.1385324210059835</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008151825509693474</v>
+        <v>0.002458011640592335</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4170727181466489</v>
+        <v>0.728436962065679</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7110348340394665</v>
+        <v>0.2302386408494357</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4652462492580014</v>
+        <v>0.1936562712843113</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.087197098894791</v>
+        <v>3.389492456128721</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5939554103200635</v>
+        <v>0.2064159351005515</v>
       </c>
       <c r="C5">
-        <v>0.1181814562543337</v>
+        <v>0.03439554240182474</v>
       </c>
       <c r="D5">
-        <v>0.1482057230601725</v>
+        <v>0.06490269447211006</v>
       </c>
       <c r="E5">
-        <v>0.2510062229513466</v>
+        <v>0.135862742392554</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008163447994626907</v>
+        <v>0.002458775740481219</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4162103640662558</v>
+        <v>0.7294284985647508</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6822163116656697</v>
+        <v>0.2216514970477732</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4454488985351119</v>
+        <v>0.1882112737812065</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.068958364788301</v>
+        <v>3.390713729406514</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5897542716127475</v>
+        <v>0.2051714463941323</v>
       </c>
       <c r="C6">
-        <v>0.1173847447402778</v>
+        <v>0.0341539597431364</v>
       </c>
       <c r="D6">
-        <v>0.1471382302170667</v>
+        <v>0.06460539872111326</v>
       </c>
       <c r="E6">
-        <v>0.24927687415218</v>
+        <v>0.1354210142739305</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008165391261027038</v>
+        <v>0.002458904019492745</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4160792528141073</v>
+        <v>0.7295988408983867</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6774322989997472</v>
+        <v>0.2202256459826515</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4421674878302682</v>
+        <v>0.1873084869241595</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.065991588905632</v>
+        <v>3.3909451448217</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6189208777490194</v>
+        <v>0.2138113273578313</v>
       </c>
       <c r="C7">
-        <v>0.1229165559118002</v>
+        <v>0.03582990483009496</v>
       </c>
       <c r="D7">
-        <v>0.1545594930358476</v>
+        <v>0.06667203135367572</v>
       </c>
       <c r="E7">
-        <v>0.2613188735250915</v>
+        <v>0.1384963113808908</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008151981362172131</v>
+        <v>0.002458021851520513</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4170602717573892</v>
+        <v>0.7284499522096795</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7106460829799772</v>
+        <v>0.2301228293123216</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4649788475244421</v>
+        <v>0.1935827475220435</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.086946947107577</v>
+        <v>3.389507007477562</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7478558541210987</v>
+        <v>0.2519786950874163</v>
       </c>
       <c r="C8">
-        <v>0.147391120295552</v>
+        <v>0.04320304707904654</v>
       </c>
       <c r="D8">
-        <v>0.1876307857997688</v>
+        <v>0.0758677708615636</v>
       </c>
       <c r="E8">
-        <v>0.3155066111565645</v>
+        <v>0.1522968283570165</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008094715393729754</v>
+        <v>0.002454332165605622</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4232168661544407</v>
+        <v>0.7242090196113047</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8574925358313692</v>
+        <v>0.2738001670693677</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5666196005383313</v>
+        <v>0.2214667389026062</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.188817885816661</v>
+        <v>3.387324540732749</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.002340744754918</v>
+        <v>0.326955387947919</v>
       </c>
       <c r="C9">
-        <v>0.1958287881005845</v>
+        <v>0.05758080168980939</v>
       </c>
       <c r="D9">
-        <v>0.2539912462182201</v>
+        <v>0.09417555816767731</v>
       </c>
       <c r="E9">
-        <v>0.4265657971354813</v>
+        <v>0.18020383501986</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007988936094482236</v>
+        <v>0.002447822004554855</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4425982890366811</v>
+        <v>0.7188775271108554</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.147474481913093</v>
+        <v>0.35944627564146</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7706968009828756</v>
+        <v>0.2768652335752364</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.426768981324471</v>
+        <v>3.398043876733141</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.191178610881536</v>
+        <v>0.3821111932499832</v>
       </c>
       <c r="C10">
-        <v>0.2319111117570429</v>
+        <v>0.06809588302058955</v>
       </c>
       <c r="D10">
-        <v>0.3040242960065029</v>
+        <v>0.1077969756150878</v>
       </c>
       <c r="E10">
-        <v>0.5121584664621821</v>
+        <v>0.2012412366257905</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007914843847487519</v>
+        <v>0.002443476619471668</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4620516728786441</v>
+        <v>0.7167866100810869</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.362813843235045</v>
+        <v>0.4223608153706948</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9248315586618858</v>
+        <v>0.318018978519568</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.629394656814384</v>
+        <v>3.415103115468639</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.277702131134532</v>
+        <v>0.4072167209222073</v>
       </c>
       <c r="C11">
-        <v>0.2484886011318821</v>
+        <v>0.07286929255130303</v>
       </c>
       <c r="D11">
-        <v>0.3271495677776812</v>
+        <v>0.1140315090632242</v>
       </c>
       <c r="E11">
-        <v>0.5522285666115536</v>
+        <v>0.210931992321477</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007881840442405892</v>
+        <v>0.002441593853526144</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4722173060877637</v>
+        <v>0.7162333618086834</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.461532921139138</v>
+        <v>0.4509792023866055</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9961807510732115</v>
+        <v>0.3368425603689076</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.728709011548318</v>
+        <v>3.424866981164371</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.310574356725766</v>
+        <v>0.4167254141395347</v>
       </c>
       <c r="C12">
-        <v>0.2547945764312516</v>
+        <v>0.07467542878538325</v>
       </c>
       <c r="D12">
-        <v>0.3359667298549738</v>
+        <v>0.1163978675011776</v>
       </c>
       <c r="E12">
-        <v>0.5675893102365777</v>
+        <v>0.2146192940195846</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007869436331517408</v>
+        <v>0.002440894339056986</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4762727748579962</v>
+        <v>0.7160811877767372</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.499047753221021</v>
+        <v>0.4618157652849106</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.023404975137709</v>
+        <v>0.3439854891673733</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.76744331190153</v>
+        <v>3.428853025625301</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.303489636308683</v>
+        <v>0.4146774737658347</v>
       </c>
       <c r="C13">
-        <v>0.2534351234952936</v>
+        <v>0.07428650983523255</v>
       </c>
       <c r="D13">
-        <v>0.3340649940142413</v>
+        <v>0.1158879863364746</v>
       </c>
       <c r="E13">
-        <v>0.5642723716313824</v>
+        <v>0.2138243796785133</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007872103740617812</v>
+        <v>0.002441044394749793</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4753899157312631</v>
+        <v>0.7161114097195878</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.490962005912593</v>
+        <v>0.4594819497226013</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.017532113327889</v>
+        <v>0.3424464696919713</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.759049426659175</v>
+        <v>3.427981711328698</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.280404280163992</v>
+        <v>0.4079989733461105</v>
       </c>
       <c r="C14">
-        <v>0.2490067976520862</v>
+        <v>0.07301791364153587</v>
       </c>
       <c r="D14">
-        <v>0.3278737101017555</v>
+        <v>0.1142260810531752</v>
       </c>
       <c r="E14">
-        <v>0.5534884091370387</v>
+        <v>0.2112349941649114</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007880818118214045</v>
+        <v>0.002441536034680014</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4725467234333607</v>
+        <v>0.7162196927768534</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.464616504876204</v>
+        <v>0.4518707469259482</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9984162059989643</v>
+        <v>0.3374299152779656</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.73187253625855</v>
+        <v>3.42518912656115</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.266278426377085</v>
+        <v>0.4039084193539964</v>
       </c>
       <c r="C15">
-        <v>0.2462981780991811</v>
+        <v>0.07224067240595389</v>
       </c>
       <c r="D15">
-        <v>0.3240894369380811</v>
+        <v>0.11320882919388</v>
       </c>
       <c r="E15">
-        <v>0.5469080354336029</v>
+        <v>0.2096512235471764</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007886167883547076</v>
+        <v>0.002441838927802929</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4708325282863797</v>
+        <v>0.7162934884400229</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.448497031897858</v>
+        <v>0.4472085771552941</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9867348597590038</v>
+        <v>0.3343590673993049</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.715375658295898</v>
+        <v>3.423516199539222</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.185538118403088</v>
+        <v>0.3804707561066891</v>
       </c>
       <c r="C16">
-        <v>0.2308314347242515</v>
+        <v>0.06778372755168505</v>
       </c>
       <c r="D16">
-        <v>0.3025209888529758</v>
+        <v>0.1073903004924404</v>
       </c>
       <c r="E16">
-        <v>0.5095646069871975</v>
+        <v>0.2006103747751027</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007917014201560033</v>
+        <v>0.002443601547980423</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4614152057243714</v>
+        <v>0.7168307826141955</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.35637951578002</v>
+        <v>0.4204904714756879</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9201959086891023</v>
+        <v>0.3167908851976549</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.623056202056773</v>
+        <v>3.414505389209921</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.136178058416419</v>
+        <v>0.366096058800963</v>
       </c>
       <c r="C17">
-        <v>0.2213883265026624</v>
+        <v>0.06504697319648756</v>
       </c>
       <c r="D17">
-        <v>0.2893881736915631</v>
+        <v>0.1038305753312301</v>
       </c>
       <c r="E17">
-        <v>0.4869623759097266</v>
+        <v>0.19509521587009</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007936112066702163</v>
+        <v>0.002444706880456726</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4559865396724234</v>
+        <v>0.7172623893931203</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.300078672360172</v>
+        <v>0.4040990823569643</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8797116421394549</v>
+        <v>0.3060397090479654</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.568317872639852</v>
+        <v>3.40949111057887</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.107844641729599</v>
+        <v>0.3578295348597749</v>
       </c>
       <c r="C18">
-        <v>0.2159719650322245</v>
+        <v>0.06347192869685614</v>
       </c>
       <c r="D18">
-        <v>0.2818683881461652</v>
+        <v>0.1017867001017976</v>
       </c>
       <c r="E18">
-        <v>0.4740672985191949</v>
+        <v>0.1919343909507916</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007947163154953923</v>
+        <v>0.002445351487152629</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4529869218675202</v>
+        <v>0.7175480858371515</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.267765988489742</v>
+        <v>0.3946710444976702</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8565403143500205</v>
+        <v>0.2998655619844186</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.537499345139764</v>
+        <v>3.406795577652076</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.098260717852412</v>
+        <v>0.3550308872169126</v>
       </c>
       <c r="C19">
-        <v>0.2141405223236461</v>
+        <v>0.06293848555918657</v>
       </c>
       <c r="D19">
-        <v>0.2793279108519187</v>
+        <v>0.1010952947158898</v>
       </c>
       <c r="E19">
-        <v>0.4697186059498932</v>
+        <v>0.1908661311331841</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007950916499062146</v>
+        <v>0.002445571261673342</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4519919087574138</v>
+        <v>0.7176512461081614</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.25683684204617</v>
+        <v>0.3914788586949385</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8487136767081083</v>
+        <v>0.2977767553281652</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.527176125793517</v>
+        <v>3.405915282243399</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.141426473947149</v>
+        <v>0.3676261253701512</v>
       </c>
       <c r="C20">
-        <v>0.2223919680380817</v>
+        <v>0.06533840235867672</v>
       </c>
       <c r="D20">
-        <v>0.2907826262402153</v>
+        <v>0.1042091431671111</v>
       </c>
       <c r="E20">
-        <v>0.4893573745071009</v>
+        <v>0.1956811375246659</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007934072235079299</v>
+        <v>0.002444588300458207</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.456551603817914</v>
+        <v>0.717212567635471</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.306064582416326</v>
+        <v>0.4058439911769938</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8840092482019841</v>
+        <v>0.3071831911358558</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.574075288906869</v>
+        <v>3.410005370963944</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.287181932409226</v>
+        <v>0.4099605655334244</v>
       </c>
       <c r="C21">
-        <v>0.250306690859702</v>
+        <v>0.073390570606648</v>
       </c>
       <c r="D21">
-        <v>0.3296905446026841</v>
+        <v>0.1147140743087363</v>
       </c>
       <c r="E21">
-        <v>0.5566506402258753</v>
+        <v>0.2119950790945637</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007878256015732745</v>
+        <v>0.002441391263739945</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4733761080229399</v>
+        <v>0.7161863306570098</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.472351041893006</v>
+        <v>0.4541063607009903</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.004025184135372</v>
+        <v>0.3389029951537665</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.739823649745375</v>
+        <v>3.426001537111858</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.383078724942408</v>
+        <v>0.4376387466494123</v>
       </c>
       <c r="C22">
-        <v>0.2687189710667042</v>
+        <v>0.07864466569134265</v>
       </c>
       <c r="D22">
-        <v>0.3554735613633824</v>
+        <v>0.1216115715791091</v>
       </c>
       <c r="E22">
-        <v>0.6017339135855906</v>
+        <v>0.2227600240859573</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007842318421728619</v>
+        <v>0.002439380171776473</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4855812042117336</v>
+        <v>0.7158498337229915</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.581810621171797</v>
+        <v>0.4856449574154169</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.08367750343006</v>
+        <v>0.3597203077544791</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.854766111069353</v>
+        <v>3.43813887404005</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.33183198199319</v>
+        <v>0.4228655690270102</v>
       </c>
       <c r="C23">
-        <v>0.2588748310005684</v>
+        <v>0.07584123675019327</v>
       </c>
       <c r="D23">
-        <v>0.3416775616451275</v>
+        <v>0.1179273272096708</v>
       </c>
       <c r="E23">
-        <v>0.577562613665151</v>
+        <v>0.2170050738974183</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007861452012169899</v>
+        <v>0.00244044638115606</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4789505693825618</v>
+        <v>0.7159988124762862</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.523310407261732</v>
+        <v>0.4688126629763474</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.041044243904729</v>
+        <v>0.3486017595210811</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.792778602399153</v>
+        <v>3.431506771743813</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.139053528554996</v>
+        <v>0.3669343894720498</v>
       </c>
       <c r="C24">
-        <v>0.2219381827986382</v>
+        <v>0.06520665236665479</v>
       </c>
       <c r="D24">
-        <v>0.2901520999842262</v>
+        <v>0.1040379843699952</v>
       </c>
       <c r="E24">
-        <v>0.4882742883017812</v>
+        <v>0.1954162114886557</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007934994219469957</v>
+        <v>0.00244464188194381</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4562957614460359</v>
+        <v>0.7172349750594051</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.303358181552028</v>
+        <v>0.4050551316118174</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8820659798892549</v>
+        <v>0.306666201567559</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.57147033988366</v>
+        <v>3.409772290619969</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9332344866380424</v>
+        <v>0.3066591835933536</v>
       </c>
       <c r="C25">
-        <v>0.1826555576327422</v>
+        <v>0.05369979305244499</v>
       </c>
       <c r="D25">
-        <v>0.2358420480172185</v>
+        <v>0.08919306190315979</v>
       </c>
       <c r="E25">
-        <v>0.3959024427041413</v>
+        <v>0.172561860710978</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000801688906754518</v>
+        <v>0.002449505997477757</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4364978212619945</v>
+        <v>0.7199996136101703</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.068706308314063</v>
+        <v>0.3362779632364834</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7148513029815575</v>
+        <v>0.2618000806283334</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.357862666394652</v>
+        <v>3.393534133380058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_92/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2623293280092867</v>
+        <v>0.7828721753635648</v>
       </c>
       <c r="C2">
-        <v>0.04519528119864447</v>
+        <v>0.1540447713685893</v>
       </c>
       <c r="D2">
-        <v>0.07837785008241838</v>
+        <v>0.1966810378719686</v>
       </c>
       <c r="E2">
-        <v>0.1560924885874613</v>
+        <v>0.3304766854858769</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002453381699923774</v>
+        <v>0.00080796525754168</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7232617069412512</v>
+        <v>0.425353383500223</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2856344520822347</v>
+        <v>0.8973805212395405</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2290699548547721</v>
+        <v>0.5944367247135958</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.387746781384607</v>
+        <v>2.21884756876787</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2323202765363135</v>
+        <v>0.6814191709144666</v>
       </c>
       <c r="C3">
-        <v>0.03941117441554809</v>
+        <v>0.1347754846220539</v>
       </c>
       <c r="D3">
-        <v>0.07111882269654757</v>
+        <v>0.1705383234338882</v>
       </c>
       <c r="E3">
-        <v>0.1451477278358695</v>
+        <v>0.287396409783284</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.00245619341695368</v>
+        <v>0.0008123841876906141</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7262354139395875</v>
+        <v>0.4196918543440482</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2513121107416794</v>
+        <v>0.7818218437074904</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2070729657989219</v>
+        <v>0.5140884018373342</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.387659030955064</v>
+        <v>2.134534483192112</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2139124479455745</v>
+        <v>0.6192622515189043</v>
       </c>
       <c r="C4">
-        <v>0.03584950314488822</v>
+        <v>0.1229813103826984</v>
       </c>
       <c r="D4">
-        <v>0.06669625504463284</v>
+        <v>0.1546464920330521</v>
       </c>
       <c r="E4">
-        <v>0.1385324210059835</v>
+        <v>0.2614603084492515</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002458011640592335</v>
+        <v>0.000815182551031552</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.728436962065679</v>
+        <v>0.4170727181466169</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2302386408494357</v>
+        <v>0.711034834039495</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1936562712843113</v>
+        <v>0.4652462492580085</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.389492456128721</v>
+        <v>2.087197098894762</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2064159351005515</v>
+        <v>0.5939554103201772</v>
       </c>
       <c r="C5">
-        <v>0.03439554240182474</v>
+        <v>0.1181814562545611</v>
       </c>
       <c r="D5">
-        <v>0.06490269447211006</v>
+        <v>0.1482057230600589</v>
       </c>
       <c r="E5">
-        <v>0.135862742392554</v>
+        <v>0.2510062229513466</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002458775740481219</v>
+        <v>0.0008163447994635234</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7294284985647508</v>
+        <v>0.4162103640662451</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2216514970477732</v>
+        <v>0.6822163116656128</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1882112737812065</v>
+        <v>0.4454488985351048</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.390713729406514</v>
+        <v>2.068958364788273</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2051714463941323</v>
+        <v>0.5897542716127475</v>
       </c>
       <c r="C6">
-        <v>0.0341539597431364</v>
+        <v>0.1173847447402636</v>
       </c>
       <c r="D6">
-        <v>0.06460539872111326</v>
+        <v>0.1471382302170525</v>
       </c>
       <c r="E6">
-        <v>0.1354210142739305</v>
+        <v>0.24927687415218</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002458904019492745</v>
+        <v>0.0008165391260785604</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7295988408983867</v>
+        <v>0.416079252814118</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2202256459826515</v>
+        <v>0.677432298999662</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1873084869241595</v>
+        <v>0.4421674878302682</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.3909451448217</v>
+        <v>2.065991588905632</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2138113273578313</v>
+        <v>0.618920877748991</v>
       </c>
       <c r="C7">
-        <v>0.03582990483009496</v>
+        <v>0.1229165559122691</v>
       </c>
       <c r="D7">
-        <v>0.06667203135367572</v>
+        <v>0.1545594930360181</v>
       </c>
       <c r="E7">
-        <v>0.1384963113808908</v>
+        <v>0.2613188735250915</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002458021851520513</v>
+        <v>0.0008151981362741399</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7284499522096795</v>
+        <v>0.4170602717573786</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2301228293123216</v>
+        <v>0.7106460829799204</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1935827475220435</v>
+        <v>0.464978847524435</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.389507007477562</v>
+        <v>2.086946947107549</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2519786950874163</v>
+        <v>0.7478558541211271</v>
       </c>
       <c r="C8">
-        <v>0.04320304707904654</v>
+        <v>0.1473911202957794</v>
       </c>
       <c r="D8">
-        <v>0.0758677708615636</v>
+        <v>0.1876307857997546</v>
       </c>
       <c r="E8">
-        <v>0.1522968283570165</v>
+        <v>0.3155066111565503</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002454332165605622</v>
+        <v>0.0008094715394012971</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7242090196113047</v>
+        <v>0.4232168661544478</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2738001670693677</v>
+        <v>0.8574925358313976</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2214667389026062</v>
+        <v>0.5666196005383384</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.387324540732749</v>
+        <v>2.188817885816633</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.326955387947919</v>
+        <v>1.002340744755116</v>
       </c>
       <c r="C9">
-        <v>0.05758080168980939</v>
+        <v>0.1958287881006981</v>
       </c>
       <c r="D9">
-        <v>0.09417555816767731</v>
+        <v>0.253991246218277</v>
       </c>
       <c r="E9">
-        <v>0.18020383501986</v>
+        <v>0.4265657971354599</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002447822004554855</v>
+        <v>0.0007988936094764677</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7188775271108554</v>
+        <v>0.442598289036674</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.35944627564146</v>
+        <v>1.147474481913235</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2768652335752364</v>
+        <v>0.7706968009828685</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.398043876733141</v>
+        <v>2.4267689813245</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3821111932499832</v>
+        <v>1.191178610881423</v>
       </c>
       <c r="C10">
-        <v>0.06809588302058955</v>
+        <v>0.2319111117570429</v>
       </c>
       <c r="D10">
-        <v>0.1077969756150878</v>
+        <v>0.3040242960065882</v>
       </c>
       <c r="E10">
-        <v>0.2012412366257905</v>
+        <v>0.5121584664621821</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002443476619471668</v>
+        <v>0.0007914843847467434</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7167866100810869</v>
+        <v>0.4620516728786299</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4223608153706948</v>
+        <v>1.362813843235074</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.318018978519568</v>
+        <v>0.9248315586618858</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.415103115468639</v>
+        <v>2.629394656814384</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4072167209222073</v>
+        <v>1.277702131134618</v>
       </c>
       <c r="C11">
-        <v>0.07286929255130303</v>
+        <v>0.2484886011318963</v>
       </c>
       <c r="D11">
-        <v>0.1140315090632242</v>
+        <v>0.3271495677775675</v>
       </c>
       <c r="E11">
-        <v>0.210931992321477</v>
+        <v>0.5522285666115536</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002441593853526144</v>
+        <v>0.0007881840442402766</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7162333618086834</v>
+        <v>0.4722173060877566</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4509792023866055</v>
+        <v>1.46153292113911</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3368425603689076</v>
+        <v>0.9961807510732257</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.424866981164371</v>
+        <v>2.728709011548261</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4167254141395347</v>
+        <v>1.310574356725937</v>
       </c>
       <c r="C12">
-        <v>0.07467542878538325</v>
+        <v>0.2547945764312374</v>
       </c>
       <c r="D12">
-        <v>0.1163978675011776</v>
+        <v>0.3359667298552154</v>
       </c>
       <c r="E12">
-        <v>0.2146192940195846</v>
+        <v>0.5675893102365706</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002440894339056986</v>
+        <v>0.0007869436331506551</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7160811877767372</v>
+        <v>0.4762727748579962</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4618157652849106</v>
+        <v>1.499047753220964</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3439854891673733</v>
+        <v>1.023404975137694</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.428853025625301</v>
+        <v>2.767443311901474</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4146774737658347</v>
+        <v>1.303489636308797</v>
       </c>
       <c r="C13">
-        <v>0.07428650983523255</v>
+        <v>0.2534351234951657</v>
       </c>
       <c r="D13">
-        <v>0.1158879863364746</v>
+        <v>0.3340649940140565</v>
       </c>
       <c r="E13">
-        <v>0.2138243796785133</v>
+        <v>0.5642723716313824</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002441044394749793</v>
+        <v>0.0007872103740616732</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7161114097195878</v>
+        <v>0.475389915731256</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4594819497226013</v>
+        <v>1.49096200591265</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3424464696919713</v>
+        <v>1.017532113327896</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.427981711328698</v>
+        <v>2.759049426659175</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4079989733461105</v>
+        <v>1.280404280163765</v>
       </c>
       <c r="C14">
-        <v>0.07301791364153587</v>
+        <v>0.2490067976517025</v>
       </c>
       <c r="D14">
-        <v>0.1142260810531752</v>
+        <v>0.3278737101017555</v>
       </c>
       <c r="E14">
-        <v>0.2112349941649114</v>
+        <v>0.5534884091370742</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002441536034680014</v>
+        <v>0.0007880818117875011</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7162196927768534</v>
+        <v>0.4725467234333678</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4518707469259482</v>
+        <v>1.464616504876147</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3374299152779656</v>
+        <v>0.9984162059989856</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.42518912656115</v>
+        <v>2.731872536258493</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4039084193539964</v>
+        <v>1.266278426377198</v>
       </c>
       <c r="C15">
-        <v>0.07224067240595389</v>
+        <v>0.2462981780994511</v>
       </c>
       <c r="D15">
-        <v>0.11320882919388</v>
+        <v>0.324089436938138</v>
       </c>
       <c r="E15">
-        <v>0.2096512235471764</v>
+        <v>0.5469080354336029</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002441838927802929</v>
+        <v>0.0007886167883243864</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7162934884400229</v>
+        <v>0.4708325282863939</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4472085771552941</v>
+        <v>1.448497031897915</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3343590673993049</v>
+        <v>0.9867348597589825</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.423516199539222</v>
+        <v>2.715375658295983</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3804707561066891</v>
+        <v>1.185538118402974</v>
       </c>
       <c r="C16">
-        <v>0.06778372755168505</v>
+        <v>0.2308314347240383</v>
       </c>
       <c r="D16">
-        <v>0.1073903004924404</v>
+        <v>0.3025209888529616</v>
       </c>
       <c r="E16">
-        <v>0.2006103747751027</v>
+        <v>0.5095646069871762</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002443601547980423</v>
+        <v>0.0007917014201887306</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7168307826141955</v>
+        <v>0.4614152057243714</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4204904714756879</v>
+        <v>1.356379515779992</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3167908851976549</v>
+        <v>0.9201959086890881</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.414505389209921</v>
+        <v>2.623056202056745</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.366096058800963</v>
+        <v>1.136178058416391</v>
       </c>
       <c r="C17">
-        <v>0.06504697319648756</v>
+        <v>0.2213883265025629</v>
       </c>
       <c r="D17">
-        <v>0.1038305753312301</v>
+        <v>0.28938817369162</v>
       </c>
       <c r="E17">
-        <v>0.19509521587009</v>
+        <v>0.486962375909691</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002444706880456726</v>
+        <v>0.0007936112066702789</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7172623893931203</v>
+        <v>0.4559865396724163</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4040990823569643</v>
+        <v>1.300078672360172</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3060397090479654</v>
+        <v>0.8797116421394549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.40949111057887</v>
+        <v>2.568317872639881</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3578295348597749</v>
+        <v>1.107844641729599</v>
       </c>
       <c r="C18">
-        <v>0.06347192869685614</v>
+        <v>0.2159719650324377</v>
       </c>
       <c r="D18">
-        <v>0.1017867001017976</v>
+        <v>0.28186838814608</v>
       </c>
       <c r="E18">
-        <v>0.1919343909507916</v>
+        <v>0.4740672985192091</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002445351487152629</v>
+        <v>0.0007947163154654136</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7175480858371515</v>
+        <v>0.4529869218675202</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3946710444976702</v>
+        <v>1.267765988489629</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2998655619844186</v>
+        <v>0.8565403143500347</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.406795577652076</v>
+        <v>2.537499345139707</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3550308872169126</v>
+        <v>1.098260717852241</v>
       </c>
       <c r="C19">
-        <v>0.06293848555918657</v>
+        <v>0.2141405223232908</v>
       </c>
       <c r="D19">
-        <v>0.1010952947158898</v>
+        <v>0.2793279108521602</v>
       </c>
       <c r="E19">
-        <v>0.1908661311331841</v>
+        <v>0.4697186059499003</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002445571261673342</v>
+        <v>0.0007950916499369585</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7176512461081614</v>
+        <v>0.4519919087573996</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3914788586949385</v>
+        <v>1.256836842046113</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2977767553281652</v>
+        <v>0.8487136767080798</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.405915282243399</v>
+        <v>2.52717612579346</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3676261253701512</v>
+        <v>1.141426473947291</v>
       </c>
       <c r="C20">
-        <v>0.06533840235867672</v>
+        <v>0.2223919680381812</v>
       </c>
       <c r="D20">
-        <v>0.1042091431671111</v>
+        <v>0.2907826262401727</v>
       </c>
       <c r="E20">
-        <v>0.1956811375246659</v>
+        <v>0.489357374507108</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002444588300458207</v>
+        <v>0.000793407223478058</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.717212567635471</v>
+        <v>0.4565516038178998</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4058439911769938</v>
+        <v>1.306064582416298</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3071831911358558</v>
+        <v>0.8840092482020125</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.410005370963944</v>
+        <v>2.574075288906897</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4099605655334244</v>
+        <v>1.287181932409169</v>
       </c>
       <c r="C21">
-        <v>0.073390570606648</v>
+        <v>0.2503066908597162</v>
       </c>
       <c r="D21">
-        <v>0.1147140743087363</v>
+        <v>0.3296905446026983</v>
       </c>
       <c r="E21">
-        <v>0.2119950790945637</v>
+        <v>0.5566506402258682</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002441391263739945</v>
+        <v>0.0007878256015402408</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7161863306570098</v>
+        <v>0.4733761080229399</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4541063607009903</v>
+        <v>1.472351041892892</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3389029951537665</v>
+        <v>1.004025184135372</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.426001537111858</v>
+        <v>2.739823649745375</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4376387466494123</v>
+        <v>1.383078724942436</v>
       </c>
       <c r="C22">
-        <v>0.07864466569134265</v>
+        <v>0.2687189710667894</v>
       </c>
       <c r="D22">
-        <v>0.1216115715791091</v>
+        <v>0.3554735613635387</v>
       </c>
       <c r="E22">
-        <v>0.2227600240859573</v>
+        <v>0.6017339135856048</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002439380171776473</v>
+        <v>0.0007842318421773814</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7158498337229915</v>
+        <v>0.4855812042117194</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4856449574154169</v>
+        <v>1.581810621171996</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3597203077544791</v>
+        <v>1.08367750343006</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.43813887404005</v>
+        <v>2.854766111069495</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4228655690270102</v>
+        <v>1.331831981993389</v>
       </c>
       <c r="C23">
-        <v>0.07584123675019327</v>
+        <v>0.2588748310006821</v>
       </c>
       <c r="D23">
-        <v>0.1179273272096708</v>
+        <v>0.3416775616452696</v>
       </c>
       <c r="E23">
-        <v>0.2170050738974183</v>
+        <v>0.5775626136651653</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00244044638115606</v>
+        <v>0.0007861452012203246</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7159988124762862</v>
+        <v>0.4789505693825546</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4688126629763474</v>
+        <v>1.523310407261761</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3486017595210811</v>
+        <v>1.041044243904743</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.431506771743813</v>
+        <v>2.792778602399153</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3669343894720498</v>
+        <v>1.139053528554939</v>
       </c>
       <c r="C24">
-        <v>0.06520665236665479</v>
+        <v>0.2219381827987661</v>
       </c>
       <c r="D24">
-        <v>0.1040379843699952</v>
+        <v>0.2901520999842262</v>
       </c>
       <c r="E24">
-        <v>0.1954162114886557</v>
+        <v>0.4882742883017812</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00244464188194381</v>
+        <v>0.0007934994219163397</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7172349750594051</v>
+        <v>0.4562957614460359</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4050551316118174</v>
+        <v>1.303358181552028</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.306666201567559</v>
+        <v>0.8820659798892549</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.409772290619969</v>
+        <v>2.571470339883632</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3066591835933536</v>
+        <v>0.9332344866381277</v>
       </c>
       <c r="C25">
-        <v>0.05369979305244499</v>
+        <v>0.1826555576331543</v>
       </c>
       <c r="D25">
-        <v>0.08919306190315979</v>
+        <v>0.2358420480173322</v>
       </c>
       <c r="E25">
-        <v>0.172561860710978</v>
+        <v>0.3959024427041697</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002449505997477757</v>
+        <v>0.0008016889067233612</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7199996136101703</v>
+        <v>0.4364978212619803</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3362779632364834</v>
+        <v>1.068706308314148</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2618000806283334</v>
+        <v>0.7148513029815859</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.393534133380058</v>
+        <v>2.357862666394595</v>
       </c>
     </row>
   </sheetData>
